--- a/TestData/BE_TestData.xlsx
+++ b/TestData/BE_TestData.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23426"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\TT095\Desktop\RT4\uttn\TT_Admin\TestData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A7A4DE33-2327-4D3C-8BA4-778E14DDD639}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{39414EBA-0E90-4044-8517-E91EC9DB348E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" tabRatio="987" activeTab="7" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" tabRatio="987" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="ClasicFlow" sheetId="1" r:id="rId1"/>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="344" uniqueCount="72">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="344" uniqueCount="71">
   <si>
     <t>EnterCurrency</t>
   </si>
@@ -195,9 +195,6 @@
     <t>Welcome@123</t>
   </si>
   <si>
-    <t>Deutsch</t>
-  </si>
-  <si>
     <t>EnterRooms</t>
   </si>
   <si>
@@ -228,22 +225,22 @@
     <t>EnterLanguage</t>
   </si>
   <si>
-    <t>INR</t>
-  </si>
-  <si>
     <t>Svenska</t>
   </si>
   <si>
-    <t>Standard Suite</t>
-  </si>
-  <si>
     <t>Luxury Room</t>
   </si>
   <si>
-    <t>QA2 Sachin 6-2018</t>
-  </si>
-  <si>
     <t>Language</t>
+  </si>
+  <si>
+    <t>English</t>
+  </si>
+  <si>
+    <t>Siv Prop</t>
+  </si>
+  <si>
+    <t>Superior King</t>
   </si>
 </sst>
 </file>
@@ -820,8 +817,8 @@
       <c r="B2" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="C2" s="6" t="s">
-        <v>68</v>
+      <c r="C2" s="14" t="s">
+        <v>70</v>
       </c>
       <c r="D2" s="1" t="s">
         <v>21</v>
@@ -860,7 +857,7 @@
         <v>31</v>
       </c>
       <c r="P2" s="2" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="Q2" s="2" t="s">
         <v>33</v>
@@ -886,8 +883,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C9D17791-107C-472E-A4BB-074FCBCC6F0E}">
   <dimension ref="A1:U2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -920,13 +917,13 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="C1" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="D1" s="1" t="s">
         <v>56</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>57</v>
       </c>
       <c r="E1" s="1" t="s">
         <v>2</v>
@@ -982,10 +979,10 @@
     </row>
     <row r="2" spans="1:21" ht="43.35" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="16" t="s">
-        <v>66</v>
-      </c>
-      <c r="B2" s="16" t="s">
-        <v>55</v>
+        <v>19</v>
+      </c>
+      <c r="B2" s="17" t="s">
+        <v>65</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>20</v>
@@ -994,10 +991,10 @@
         <v>34</v>
       </c>
       <c r="E2" s="6" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="G2" s="1" t="s">
         <v>21</v>
@@ -1012,7 +1009,7 @@
         <v>24</v>
       </c>
       <c r="K2" s="5" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="L2" s="1" t="s">
         <v>26</v>
@@ -1093,13 +1090,13 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>1</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="E1" s="1" t="s">
         <v>2</v>
@@ -1166,8 +1163,8 @@
       <c r="D2" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="E2" s="6" t="s">
-        <v>68</v>
+      <c r="E2" s="14" t="s">
+        <v>70</v>
       </c>
       <c r="F2" s="1" t="s">
         <v>21</v>
@@ -1243,7 +1240,7 @@
         <v>1</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>2</v>
@@ -1304,20 +1301,20 @@
       <c r="B2" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="C2" s="6" t="s">
-        <v>68</v>
+      <c r="C2" s="14" t="s">
+        <v>70</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="E2" s="1" t="s">
         <v>21</v>
       </c>
       <c r="F2" s="15" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="G2" s="1" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="H2" s="1" t="s">
         <v>24</v>
@@ -1436,8 +1433,8 @@
       <c r="B2" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="C2" s="6" t="s">
-        <v>68</v>
+      <c r="C2" s="14" t="s">
+        <v>70</v>
       </c>
       <c r="D2" t="s">
         <v>21</v>
@@ -1476,7 +1473,7 @@
         <v>31</v>
       </c>
       <c r="P2" s="6" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="Q2" s="6"/>
     </row>
@@ -1494,12 +1491,31 @@
   <dimension ref="A1:T2"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+      <selection activeCell="G2" sqref="G2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="20" max="20" width="23" customWidth="1"/>
+    <col min="1" max="1" width="9.42578125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="14.42578125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="20.42578125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="10.5703125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="13.7109375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="11.28515625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="9.7109375" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="10.140625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="9.7109375" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.140625" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="10" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="17.28515625" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.140625" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="12.7109375" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="12.42578125" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="9" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="10.140625" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="12.5703125" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="15.5703125" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="20.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:20" x14ac:dyDescent="0.25">
@@ -1564,7 +1580,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="2" spans="1:20" ht="30" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A2" s="8" t="s">
         <v>53</v>
       </c>
@@ -1572,7 +1588,7 @@
         <v>54</v>
       </c>
       <c r="C2" s="13" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="D2" t="s">
         <v>36</v>
@@ -1583,8 +1599,8 @@
       <c r="F2" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="G2" s="6" t="s">
-        <v>68</v>
+      <c r="G2" s="14" t="s">
+        <v>70</v>
       </c>
       <c r="H2" t="s">
         <v>21</v>
@@ -1623,7 +1639,7 @@
         <v>31</v>
       </c>
       <c r="T2" s="6" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
     </row>
   </sheetData>
@@ -1722,8 +1738,8 @@
       <c r="B2" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="C2" s="6" t="s">
-        <v>68</v>
+      <c r="C2" s="14" t="s">
+        <v>70</v>
       </c>
       <c r="D2" t="s">
         <v>21</v>
@@ -1794,7 +1810,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:T2"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
@@ -1828,7 +1844,7 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>1</v>
@@ -1890,13 +1906,13 @@
         <v>19</v>
       </c>
       <c r="B2" s="17" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="D2" s="6" t="s">
-        <v>68</v>
+      <c r="D2" s="14" t="s">
+        <v>70</v>
       </c>
       <c r="E2" t="s">
         <v>21</v>
@@ -1905,7 +1921,7 @@
         <v>21</v>
       </c>
       <c r="G2" s="15" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="H2" t="s">
         <v>23</v>
@@ -2032,7 +2048,7 @@
         <v>20</v>
       </c>
       <c r="C2" s="6" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="D2" s="1" t="s">
         <v>21</v>
